--- a/informacoes_notas.xlsx
+++ b/informacoes_notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/886995f4f33187c5/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D361C20488DEA4E38A0B3C41E5C445BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEB3A18F-322A-4020-B011-426AE07D6C36}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4D361C20488DEA4E38A0B3C41E5C445BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17D1D8D-9708-4A98-B9BD-4E8670813D42}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Numero</t>
   </si>
@@ -44,55 +44,29 @@
     <t>Email</t>
   </si>
   <si>
-    <t>flavio.araujo@mundial.com</t>
-  </si>
-  <si>
-    <t>MUNDIAL</t>
-  </si>
-  <si>
     <t>Empresa (reduzido)</t>
   </si>
   <si>
-    <t>ARTECOLA</t>
-  </si>
-  <si>
-    <t>MERCUR</t>
-  </si>
-  <si>
-    <t>TRANSP HAMMES</t>
-  </si>
-  <si>
-    <t>MASCARELLO</t>
-  </si>
-  <si>
-    <t>contabil@mercur.com.br</t>
-  </si>
-  <si>
-    <t>luciana.weber@artecola.com.br; caroline.wust@artecola.com.br; alessandra.soares@artecola.com.br</t>
-  </si>
-  <si>
-    <t>compras.patricia@comil.com.br; financeiro.marcilene@grupomascarello.com.br</t>
-  </si>
-  <si>
-    <t>contasapagar01@trhammes.com.br</t>
+    <t>VIEMAR</t>
+  </si>
+  <si>
+    <t>saraujo@viemar.com.br</t>
+  </si>
+  <si>
+    <t>RODOIL</t>
+  </si>
+  <si>
+    <t>Márcia Nicolini marcia.crocoli@rodoil.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,11 +110,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,10 +125,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,17 +409,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -455,70 +430,123 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>462</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>464</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>465</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>466</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{C4BDEE95-C8FA-40E2-86E4-01A10926559A}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{44DE493B-CA04-43FC-88AC-BFF9679F3B42}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>